--- a/documentation/ReqFeedbackSpreadsheet_LUND_APPROVE_NewComments.xlsx
+++ b/documentation/ReqFeedbackSpreadsheet_LUND_APPROVE_NewComments.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>Project Name:</t>
   </si>
@@ -210,6 +210,15 @@
   </si>
   <si>
     <t>I think I  misread this the first time around and thought it was "less than 4 cm and greater than 5 cm"</t>
+  </si>
+  <si>
+    <t>4.0 a</t>
+  </si>
+  <si>
+    <t>4.0 b</t>
+  </si>
+  <si>
+    <t>11 b</t>
   </si>
 </sst>
 </file>
@@ -381,7 +390,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -418,6 +427,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -731,8 +743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -839,7 +851,7 @@
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="10">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="C9" s="7"/>
       <c r="E9" s="2" t="s">
@@ -859,7 +871,7 @@
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11" s="7"/>
       <c r="E11" s="2" t="s">
@@ -869,7 +881,7 @@
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="10">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="C12" s="7"/>
       <c r="E12" s="2" t="s">
@@ -889,7 +901,7 @@
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C14" s="7"/>
       <c r="E14" s="2" t="s">
@@ -899,7 +911,7 @@
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="10">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="C15" s="7"/>
       <c r="E15" s="2" t="s">
@@ -918,8 +930,8 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="10">
-        <v>1</v>
+      <c r="B17" s="16" t="s">
+        <v>54</v>
       </c>
       <c r="C17" s="8"/>
       <c r="E17" s="2" t="s">
@@ -931,8 +943,8 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
-      <c r="B18" s="10">
-        <v>1.1000000000000001</v>
+      <c r="B18" s="16" t="s">
+        <v>55</v>
       </c>
       <c r="C18"/>
       <c r="D18" s="7"/>
@@ -953,7 +965,7 @@
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C20" s="7"/>
       <c r="E20" s="2" t="s">
@@ -973,7 +985,7 @@
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="10">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C22" s="7"/>
       <c r="E22" s="2" t="s">
@@ -993,7 +1005,7 @@
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="10">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C24" s="7"/>
       <c r="E24" s="2" t="s">
@@ -1003,7 +1015,7 @@
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="10">
-        <v>1.1000000000000001</v>
+        <v>7.1</v>
       </c>
       <c r="C25" s="7"/>
       <c r="E25" s="2" t="s">
@@ -1023,7 +1035,7 @@
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="10">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C27" s="7"/>
       <c r="E27" s="2" t="s">
@@ -1043,7 +1055,7 @@
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="10">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C29" s="7"/>
       <c r="E29" s="2" t="s">
@@ -1063,7 +1075,7 @@
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="10">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C31" s="7"/>
       <c r="E31" s="2" t="s">
@@ -1084,8 +1096,8 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
-        <v>11.1</v>
+      <c r="A33" s="11" t="s">
+        <v>56</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="12"/>
@@ -1097,7 +1109,7 @@
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="10">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C34" s="8"/>
       <c r="E34" s="2" t="s">
@@ -1110,7 +1122,7 @@
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="1">
-        <v>1.1000000000000001</v>
+        <v>11.1</v>
       </c>
       <c r="C35" s="8"/>
       <c r="E35" s="2" t="s">
@@ -1123,7 +1135,7 @@
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="10">
-        <v>1.2</v>
+        <v>11.2</v>
       </c>
       <c r="C36" s="12"/>
       <c r="D36" s="7"/>
@@ -1147,7 +1159,7 @@
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="10">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C38" s="7"/>
       <c r="E38" s="2" t="s">
@@ -1180,7 +1192,7 @@
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="10">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C41" s="7"/>
       <c r="E41" s="2" t="s">
